--- a/Stats/Model_Stats_5.xlsx
+++ b/Stats/Model_Stats_5.xlsx
@@ -737,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,22 +798,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d_Berlin</t>
+          <t>d_Bremen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9.409999999999998</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>94099.99999999999</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>p1</t>
@@ -821,22 +821,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Berlin-Hannover-Dortmund</t>
+          <t>Bremen-Hamburg-Berlin</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>e1-e5</t>
+          <t>e2-e0</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>506.5</v>
+        <v>421.09</v>
       </c>
     </row>
     <row r="3">
       <c r="E3" t="inlineStr">
         <is>
-          <t>Duesseldorf</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -846,22 +846,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Berlin-Hannover-Dortmund-Essen-Duesseldorf</t>
+          <t>Bremen-Hannover-Berlin</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>e1-e5-e4-e7</t>
+          <t>e3-e1</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>578</v>
+        <v>416.28</v>
       </c>
     </row>
     <row r="4">
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -871,16 +871,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Berlin-Hamburg</t>
+          <t>Bremen-Hannover-Dortmund-Essen</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>e0</t>
+          <t>e3-e5-e4</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>306.33</v>
+        <v>369.98</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Berlin-Hannover-Hamburg</t>
+          <t>Bremen-Hamburg</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>e1-e11</t>
+          <t>e2</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>453.8</v>
+        <v>114.76</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -921,16 +921,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Berlin-Hamburg-Hannover</t>
+          <t>Bremen-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>e0-e11</t>
+          <t>e3-e11</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>465.23</v>
+        <v>280.28</v>
       </c>
     </row>
     <row r="7">
@@ -946,182 +946,182 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Berlin-Hannover</t>
+          <t>Bremen-Hamburg-Hannover</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>e1</t>
+          <t>e2-e11</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>294.9</v>
+        <v>273.66</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="inlineStr">
         <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>p7</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bremen-Hannover</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>e3</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>121.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Koeln</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>p7</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Berlin-Hannover-Dortmund-Koeln</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>e1-e5-e6</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>601.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>d_Bremen</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bremen</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>94099.99999999999</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>p8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bremen-Hannover-Dortmund-Koeln</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>e3-e5-e6</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>427.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>d_Dortmund</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="D10" t="n">
+        <v>14.115</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>p1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Bremen-Hannover-Dortmund</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>e3-e5</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>332.98</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Duesseldorf</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>p2</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Dortmund-Essen-Duesseldorf</t>
+          <t>Dortmund-Hannover-Berlin</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>e3-e5-e4-e7</t>
+          <t>e5-e1</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>404.48</v>
+        <v>506.5</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bremen-Hamburg</t>
+          <t>Dortmund-Essen</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>e2</t>
+          <t>e4</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>114.76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Hamburg</t>
+          <t>Dortmund-Koeln-Duesseldorf-Essen</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>e3-e11</t>
+          <t>e6-e8-e7</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>280.28</v>
+        <v>168.7</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bremen-Hamburg-Hannover</t>
+          <t>Dortmund-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>e2-e11</t>
+          <t>e5-e11</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>273.66</v>
+        <v>370.5</v>
       </c>
     </row>
     <row r="14">
@@ -1132,453 +1132,453 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>p6</t>
+          <t>p5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bremen-Hannover</t>
+          <t>Dortmund-Hannover</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>e3</t>
+          <t>e5</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>121.38</v>
+        <v>211.6</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>p6</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Dortmund-Koeln-Frankfurt-Hannover</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>e6-e10-e9</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>639.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Koeln</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>p7</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Bremen-Hannover-Dortmund-Koeln</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>e3-e5-e6</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>427.58</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>d_Essen</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Essen</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>94099.99999999999</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>p1</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Essen-Dortmund</t>
+          <t>Dortmund-Essen-Duesseldorf-Koeln</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>e4</t>
+          <t>e4-e7-e8</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Koeln</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p8</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf-Koeln-Dortmund</t>
+          <t>Dortmund-Hannover-Frankfurt-Koeln</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>e7-e8-e6</t>
+          <t>e5-e9-e10</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>168.7</v>
+        <v>756.7</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
         <is>
-          <t>Duesseldorf</t>
+          <t>Koeln</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p9</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Koeln-Duesseldorf</t>
+          <t>Dortmund-Koeln</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>e4-e6-e8</t>
+          <t>e6</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>171.2</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>d_Frankfurt</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>9.409999999999998</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Duesseldorf</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf</t>
+          <t>Frankfurt-Hannover-Berlin</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>e7</t>
+          <t>e9-e1</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>34.5</v>
+        <v>649.4</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Hannover-Hamburg</t>
+          <t>Frankfurt-Hannover-Dortmund-Essen</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>e4-e5-e11</t>
+          <t>e9-e5-e4</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>407.5</v>
+        <v>603.1</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>p6</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Hannover</t>
+          <t>Frankfurt-Koeln-Duesseldorf-Essen</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>e4-e5</t>
+          <t>e10-e8-e7</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>248.6</v>
+        <v>264.7</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>p7</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf-Koeln-Frankfurt-Hannover</t>
+          <t>Frankfurt-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>e7-e8-e10-e9</t>
+          <t>e9-e11</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>619.2</v>
+        <v>513.4</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>p8</t>
+          <t>p5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Koeln</t>
+          <t>Frankfurt-Hannover</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>e4-e6</t>
+          <t>e9</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>131.6</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="inlineStr">
         <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>p6</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Frankfurt-Koeln-Dortmund-Hannover</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>e10-e6-e5</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>496.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Koeln</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>p9</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Essen-Duesseldorf-Koeln</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>e7-e8</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>74.09999999999999</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>25</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>d_Frankfurt</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Frankfurt</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>94099.99999999999</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>p7</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover-Dortmund</t>
+          <t>Frankfurt-Hannover-Dortmund-Koeln</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>e9-e5</t>
+          <t>e9-e5-e6</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>566.1</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Koeln</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p8</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Frankfurt-Koeln-Dortmund</t>
+          <t>Frankfurt-Koeln</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>e10-e6</t>
+          <t>e10</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>285.2</v>
+        <v>190.6</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>d_Duesseldorf</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Duesseldorf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>9.409999999999998</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Duesseldorf</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover-Dortmund-Essen-Duesseldorf</t>
+          <t>Duesseldorf-Essen-Dortmund-Hannover-Berlin</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>e9-e5-e4-e7</t>
+          <t>e7-e4-e5-e1</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>637.6</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="inlineStr">
         <is>
-          <t>Duesseldorf</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Frankfurt-Koeln-Duesseldorf</t>
+          <t>Duesseldorf-Essen</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>e10-e8</t>
+          <t>e7</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>230.2</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover-Hamburg</t>
+          <t>Duesseldorf-Koeln-Dortmund-Essen</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>e9-e11</t>
+          <t>e8-e6-e4</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>513.4</v>
+        <v>171.2</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>p6</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover</t>
+          <t>Duesseldorf-Essen-Dortmund-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>e9</t>
+          <t>e7-e4-e5-e11</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>354.5</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31">
@@ -1589,46 +1589,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>p7</t>
+          <t>p5</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Frankfurt-Koeln-Dortmund-Hannover</t>
+          <t>Duesseldorf-Essen-Dortmund-Hannover</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>e10-e6-e5</t>
+          <t>e7-e4-e5</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>496.8</v>
+        <v>283.1</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>p8</t>
+          <t>p6</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover-Dortmund-Koeln</t>
+          <t>Duesseldorf-Koeln-Frankfurt-Hannover</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>e9-e5-e6</t>
+          <t>e8-e10-e9</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>660.7</v>
+        <v>584.7</v>
       </c>
     </row>
     <row r="33">
@@ -1639,21 +1639,46 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>p9</t>
+          <t>p7</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Frankfurt-Koeln</t>
+          <t>Duesseldorf-Essen-Dortmund-Koeln</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>e10</t>
+          <t>e7-e4-e6</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>190.6</v>
+        <v>166.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Koeln</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>p8</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Duesseldorf-Koeln</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>e8</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>39.6</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mu_d_Berlin_p3</t>
+          <t>mu_d_Bremen_p4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1707,7 +1732,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mu_d_Berlin_p6</t>
+          <t>mu_d_Bremen_p7</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1720,7 +1745,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mu_d_Bremen_p3</t>
+          <t>mu_d_Dortmund_p2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1733,7 +1758,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mu_d_Bremen_p6</t>
+          <t>mu_d_Dortmund_p9</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1746,7 +1771,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mu_d_Essen_p1</t>
+          <t>mu_d_Frankfurt_p5</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1759,7 +1784,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mu_d_Essen_p4</t>
+          <t>mu_d_Frankfurt_p8</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1772,7 +1797,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mu_d_Frankfurt_p6</t>
+          <t>mu_d_Duesseldorf_p2</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1785,7 +1810,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mu_d_Frankfurt_p9</t>
+          <t>mu_d_Duesseldorf_p8</t>
         </is>
       </c>
       <c r="C10" t="n">
